--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="14720" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>图集</t>
-  </si>
-  <si>
     <t>图集宽高</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int[]</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>anim_atlas</t>
-  </si>
-  <si>
     <t>atlas_grid</t>
   </si>
   <si>
@@ -60,73 +51,19 @@
     <t>sampling_speed</t>
   </si>
   <si>
-    <t>g2.png</t>
-  </si>
-  <si>
-    <t>[8,1]</t>
-  </si>
-  <si>
-    <t>[[0,1,2,3,4]]</t>
+    <t>[7,3]</t>
+  </si>
+  <si>
+    <t>[[0,1,2,3,4,5,6,7,8]]</t>
   </si>
   <si>
     <t>[16]</t>
   </si>
   <si>
-    <t>hq.png</t>
-  </si>
-  <si>
     <t>[10,1]</t>
   </si>
   <si>
     <t>[[0,1,2,3,4,5,6,7,8,9]]</t>
-  </si>
-  <si>
-    <t>js1.png</t>
-  </si>
-  <si>
-    <t>[10,2]</t>
-  </si>
-  <si>
-    <t>[[0,1,2,3,4,5,6,7,8,9];[10,11,12,13,14,15]]</t>
-  </si>
-  <si>
-    <t>[16,16]</t>
-  </si>
-  <si>
-    <t>lq.png</t>
-  </si>
-  <si>
-    <t>g1.png</t>
-  </si>
-  <si>
-    <t>js2.png</t>
-  </si>
-  <si>
-    <t>js3.png</t>
-  </si>
-  <si>
-    <t>js4.png</t>
-  </si>
-  <si>
-    <t>js5.png</t>
-  </si>
-  <si>
-    <t>js6.png</t>
-  </si>
-  <si>
-    <t>js7.png</t>
-  </si>
-  <si>
-    <t>js8.png</t>
-  </si>
-  <si>
-    <t>js9.png</t>
-  </si>
-  <si>
-    <t>js10.png</t>
-  </si>
-  <si>
-    <t>js11.png</t>
   </si>
 </sst>
 </file>
@@ -134,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -597,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,10 +543,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +555,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,22 +1034,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.12727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.2545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,297 +1062,61 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
         <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1135,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1451,7 +1152,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -51,19 +51,16 @@
     <t>sampling_speed</t>
   </si>
   <si>
-    <t>[7,3]</t>
-  </si>
-  <si>
-    <t>[[0,1,2,3,4,5,6,7,8]]</t>
+    <t>[10,4]</t>
+  </si>
+  <si>
+    <t>[[0,1,2,3,4,5,6,7,8,9]]</t>
   </si>
   <si>
     <t>[16]</t>
   </si>
   <si>
     <t>[10,1]</t>
-  </si>
-  <si>
-    <t>[[0,1,2,3,4,5,6,7,8,9]]</t>
   </si>
 </sst>
 </file>
@@ -71,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -534,28 +531,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,7 +1034,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1113,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>

--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14720" windowHeight="17180"/>
+    <workbookView windowWidth="19455" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -54,13 +54,19 @@
     <t>[10,4]</t>
   </si>
   <si>
+    <t>[[0,1,2,3,4,5,6,7,8,9];[10,11,12,13,14,15,16,17];[20,21,22,23,24,25,26,27]]</t>
+  </si>
+  <si>
+    <t>[16,16,16]</t>
+  </si>
+  <si>
+    <t>[10,1]</t>
+  </si>
+  <si>
     <t>[[0,1,2,3,4,5,6,7,8,9]]</t>
   </si>
   <si>
     <t>[16]</t>
-  </si>
-  <si>
-    <t>[10,1]</t>
   </si>
 </sst>
 </file>
@@ -68,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,12 +89,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -97,30 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +157,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,6 +189,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,71 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,43 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,20 +459,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +504,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +526,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,148 +537,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,14 +1040,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.2545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.2583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1110,10 +1116,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1138,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1149,7 +1155,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="11025"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>图集宽高</t>
   </si>
   <si>
@@ -33,6 +36,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int[]</t>
   </si>
   <si>
@@ -42,6 +48,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>intro</t>
+  </si>
+  <si>
     <t>atlas_grid</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t>sampling_speed</t>
   </si>
   <si>
+    <t>玩家1</t>
+  </si>
+  <si>
     <t>[10,4]</t>
   </si>
   <si>
@@ -58,6 +70,9 @@
   </si>
   <si>
     <t>[16,16,16]</t>
+  </si>
+  <si>
+    <t>怪物1</t>
   </si>
   <si>
     <t>[10,1]</t>
@@ -88,15 +103,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,15 +181,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,106 +217,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,22 +454,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +498,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,24 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,22 +1052,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.2583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.2583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,61 +1081,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -75,13 +75,10 @@
     <t>怪物1</t>
   </si>
   <si>
-    <t>[10,1]</t>
-  </si>
-  <si>
-    <t>[[0,1,2,3,4,5,6,7,8,9]]</t>
-  </si>
-  <si>
-    <t>[16]</t>
+    <t>[8,4]</t>
+  </si>
+  <si>
+    <t>[[0,1,2,3,4,5,6];[8,9,10,11,12,13,14];[16,17,18,19,20,21,22]]</t>
   </si>
 </sst>
 </file>
@@ -89,8 +86,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -103,32 +100,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +136,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -150,8 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,14 +214,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,73 +243,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,8 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +460,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,23 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,13 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,7 +1052,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1063,7 +1060,7 @@
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.2583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -1150,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/design/excel/anim_frame_config.xlsx
+++ b/design/excel/anim_frame_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>[[0,1,2,3,4,5,6];[8,9,10,11,12,13,14];[16,17,18,19,20,21,22]]</t>
+  </si>
+  <si>
+    <t>怪物2</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -101,12 +104,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -114,13 +168,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,66 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -204,19 +200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,9 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +231,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +447,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,21 +485,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -487,21 +520,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,21 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
@@ -1147,6 +1150,23 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
